--- a/config/data/无尽模式.xlsx
+++ b/config/data/无尽模式.xlsx
@@ -66,7 +66,7 @@
             <charset val="134"/>
           </rPr>
           <t>是否需要怒气：不填或0没有
-填1有怒气功能</t>
+填30有怒气功能</t>
         </r>
       </text>
     </comment>
@@ -476,7 +476,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="65">
   <si>
     <t>comment</t>
   </si>
@@ -704,6 +704,67 @@
   <si>
     <t>star</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关即可获得全部战星,每日只可通关1次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关即可获得全部战星,每日只可通关2次</t>
+  </si>
+  <si>
+    <t>通关即可获得全部战星,每日只可通关3次</t>
+  </si>
+  <si>
+    <t>通关即可获得全部战星,每日只可通关4次</t>
+  </si>
+  <si>
+    <t>通关即可获得全部战星,每日只可通关5次</t>
+  </si>
+  <si>
+    <t>通关即可获得全部战星,每日只可通关6次</t>
+  </si>
+  <si>
+    <t>通关即可获得全部战星,每日只可通关7次</t>
+  </si>
+  <si>
+    <t>通关即可获得全部战星,每日只可通关8次</t>
+  </si>
+  <si>
+    <t>通关即可获得全部战星,每日只可通关9次</t>
+  </si>
+  <si>
+    <t>通关即可获得全部战星,每日只可通关10次</t>
+  </si>
+  <si>
+    <t>通关即可获得全部战星,每日只可通关11次</t>
+  </si>
+  <si>
+    <t>通关即可获得全部战星,每日只可通关12次</t>
+  </si>
+  <si>
+    <t>通关即可获得全部战星,每日只可通关13次</t>
+  </si>
+  <si>
+    <t>通关即可获得全部战星,每日只可通关14次</t>
+  </si>
+  <si>
+    <t>通关即可获得全部战星,每日只可通关15次</t>
+  </si>
+  <si>
+    <t>通关即可获得全部战星,每日只可通关16次</t>
+  </si>
+  <si>
+    <t>通关即可获得全部战星,每日只可通关17次</t>
+  </si>
+  <si>
+    <t>通关即可获得全部战星,每日只可通关18次</t>
+  </si>
+  <si>
+    <t>通关即可获得全部战星,每日只可通关19次</t>
+  </si>
+  <si>
+    <t>通关即可获得全部战星,每日只可通关20次</t>
   </si>
 </sst>
 </file>
@@ -1198,8 +1259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1292,7 +1353,7 @@
         <v>1000</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>1500</v>
@@ -1317,6 +1378,9 @@
       </c>
       <c r="L4" t="s">
         <v>22</v>
+      </c>
+      <c r="N4" t="s">
+        <v>45</v>
       </c>
       <c r="O4" s="7">
         <v>5000000</v>
@@ -1339,7 +1403,7 @@
         <v>1000</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>1800</v>
@@ -1364,6 +1428,9 @@
       </c>
       <c r="L5" t="s">
         <v>23</v>
+      </c>
+      <c r="N5" t="s">
+        <v>46</v>
       </c>
       <c r="O5" s="7">
         <v>6000000</v>
@@ -1386,7 +1453,7 @@
         <v>1000</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>2100</v>
@@ -1411,6 +1478,9 @@
       </c>
       <c r="L6" t="s">
         <v>24</v>
+      </c>
+      <c r="N6" t="s">
+        <v>47</v>
       </c>
       <c r="O6" s="7">
         <v>7000000</v>
@@ -1433,7 +1503,7 @@
         <v>1000</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>2400</v>
@@ -1458,6 +1528,9 @@
       </c>
       <c r="L7" t="s">
         <v>25</v>
+      </c>
+      <c r="N7" t="s">
+        <v>48</v>
       </c>
       <c r="O7" s="7">
         <v>8000000</v>
@@ -1480,7 +1553,7 @@
         <v>1000</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>2700</v>
@@ -1505,6 +1578,9 @@
       </c>
       <c r="L8" t="s">
         <v>27</v>
+      </c>
+      <c r="N8" t="s">
+        <v>49</v>
       </c>
       <c r="O8" s="7">
         <v>9000000</v>
@@ -1527,7 +1603,7 @@
         <v>900</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E9">
         <v>3000</v>
@@ -1552,6 +1628,9 @@
       </c>
       <c r="L9" t="s">
         <v>28</v>
+      </c>
+      <c r="N9" t="s">
+        <v>50</v>
       </c>
       <c r="O9" s="7">
         <v>10000000</v>
@@ -1574,7 +1653,7 @@
         <v>900</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>3300</v>
@@ -1599,6 +1678,9 @@
       </c>
       <c r="L10" t="s">
         <v>29</v>
+      </c>
+      <c r="N10" t="s">
+        <v>51</v>
       </c>
       <c r="O10" s="7">
         <v>11000000</v>
@@ -1621,7 +1703,7 @@
         <v>900</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>3600</v>
@@ -1646,6 +1728,9 @@
       </c>
       <c r="L11" t="s">
         <v>30</v>
+      </c>
+      <c r="N11" t="s">
+        <v>52</v>
       </c>
       <c r="O11" s="7">
         <v>12000000</v>
@@ -1668,7 +1753,7 @@
         <v>900</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E12">
         <v>3900</v>
@@ -1693,6 +1778,9 @@
       </c>
       <c r="L12" t="s">
         <v>31</v>
+      </c>
+      <c r="N12" t="s">
+        <v>53</v>
       </c>
       <c r="O12" s="7">
         <v>13000000</v>
@@ -1715,7 +1803,7 @@
         <v>900</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E13">
         <v>4500</v>
@@ -1740,6 +1828,9 @@
       </c>
       <c r="L13" t="s">
         <v>33</v>
+      </c>
+      <c r="N13" t="s">
+        <v>54</v>
       </c>
       <c r="O13" s="7">
         <v>14000000</v>
@@ -1762,7 +1853,7 @@
         <v>800</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E14">
         <v>4500</v>
@@ -1787,6 +1878,9 @@
       </c>
       <c r="L14" t="s">
         <v>34</v>
+      </c>
+      <c r="N14" t="s">
+        <v>55</v>
       </c>
       <c r="O14" s="7">
         <v>15000000</v>
@@ -1809,7 +1903,7 @@
         <v>800</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E15">
         <v>5400</v>
@@ -1834,6 +1928,9 @@
       </c>
       <c r="L15" t="s">
         <v>35</v>
+      </c>
+      <c r="N15" t="s">
+        <v>56</v>
       </c>
       <c r="O15" s="7">
         <v>16000000</v>
@@ -1856,7 +1953,7 @@
         <v>800</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E16">
         <v>6300</v>
@@ -1881,6 +1978,9 @@
       </c>
       <c r="L16" t="s">
         <v>36</v>
+      </c>
+      <c r="N16" t="s">
+        <v>57</v>
       </c>
       <c r="O16" s="7">
         <v>17000000</v>
@@ -1903,7 +2003,7 @@
         <v>800</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E17">
         <v>7200</v>
@@ -1928,6 +2028,9 @@
       </c>
       <c r="L17" t="s">
         <v>37</v>
+      </c>
+      <c r="N17" t="s">
+        <v>58</v>
       </c>
       <c r="O17" s="7">
         <v>18000000</v>
@@ -1950,7 +2053,7 @@
         <v>800</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E18">
         <v>8100</v>
@@ -1975,6 +2078,9 @@
       </c>
       <c r="L18" t="s">
         <v>38</v>
+      </c>
+      <c r="N18" t="s">
+        <v>59</v>
       </c>
       <c r="O18" s="7">
         <v>19000000</v>
@@ -1997,7 +2103,7 @@
         <v>700</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E19">
         <v>9000</v>
@@ -2022,6 +2128,9 @@
       </c>
       <c r="L19" t="s">
         <v>39</v>
+      </c>
+      <c r="N19" t="s">
+        <v>60</v>
       </c>
       <c r="O19" s="7">
         <v>20000000</v>
@@ -2044,7 +2153,7 @@
         <v>700</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E20">
         <v>9900</v>
@@ -2069,6 +2178,9 @@
       </c>
       <c r="L20" t="s">
         <v>40</v>
+      </c>
+      <c r="N20" t="s">
+        <v>61</v>
       </c>
       <c r="O20" s="7">
         <v>21000000</v>
@@ -2091,7 +2203,7 @@
         <v>700</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E21">
         <v>10800</v>
@@ -2116,6 +2228,9 @@
       </c>
       <c r="L21" t="s">
         <v>41</v>
+      </c>
+      <c r="N21" t="s">
+        <v>62</v>
       </c>
       <c r="O21" s="7">
         <v>22000000</v>
@@ -2138,7 +2253,7 @@
         <v>700</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E22">
         <v>11700</v>
@@ -2163,6 +2278,9 @@
       </c>
       <c r="L22" t="s">
         <v>42</v>
+      </c>
+      <c r="N22" t="s">
+        <v>63</v>
       </c>
       <c r="O22" s="7">
         <v>23000000</v>
@@ -2185,7 +2303,7 @@
         <v>700</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E23">
         <v>13500</v>
@@ -2210,6 +2328,9 @@
       </c>
       <c r="L23" t="s">
         <v>43</v>
+      </c>
+      <c r="N23" t="s">
+        <v>64</v>
       </c>
       <c r="O23" s="7">
         <v>24000000</v>

--- a/config/data/无尽模式.xlsx
+++ b/config/data/无尽模式.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="20400" windowHeight="8490"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20400" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -476,7 +476,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="45">
   <si>
     <t>comment</t>
   </si>
@@ -585,10 +585,6 @@
   <si>
     <t>awardItem</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001/10003</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -655,9 +651,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10001/10002/10003</t>
-  </si>
-  <si>
     <t>无尽之战10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -706,72 +699,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>通关即可获得全部战星,每日只可通关1次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关即可获得全部战星,每日只可通关2次</t>
-  </si>
-  <si>
-    <t>通关即可获得全部战星,每日只可通关3次</t>
-  </si>
-  <si>
-    <t>通关即可获得全部战星,每日只可通关4次</t>
-  </si>
-  <si>
-    <t>通关即可获得全部战星,每日只可通关5次</t>
-  </si>
-  <si>
-    <t>通关即可获得全部战星,每日只可通关6次</t>
-  </si>
-  <si>
-    <t>通关即可获得全部战星,每日只可通关7次</t>
-  </si>
-  <si>
-    <t>通关即可获得全部战星,每日只可通关8次</t>
-  </si>
-  <si>
-    <t>通关即可获得全部战星,每日只可通关9次</t>
-  </si>
-  <si>
-    <t>通关即可获得全部战星,每日只可通关10次</t>
-  </si>
-  <si>
-    <t>通关即可获得全部战星,每日只可通关11次</t>
-  </si>
-  <si>
-    <t>通关即可获得全部战星,每日只可通关12次</t>
-  </si>
-  <si>
-    <t>通关即可获得全部战星,每日只可通关13次</t>
-  </si>
-  <si>
-    <t>通关即可获得全部战星,每日只可通关14次</t>
-  </si>
-  <si>
-    <t>通关即可获得全部战星,每日只可通关15次</t>
-  </si>
-  <si>
-    <t>通关即可获得全部战星,每日只可通关16次</t>
-  </si>
-  <si>
-    <t>通关即可获得全部战星,每日只可通关17次</t>
-  </si>
-  <si>
-    <t>通关即可获得全部战星,每日只可通关18次</t>
-  </si>
-  <si>
-    <t>通关即可获得全部战星,每日只可通关19次</t>
-  </si>
-  <si>
-    <t>通关即可获得全部战星,每日只可通关20次</t>
+    <t>20001/20002</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>胜利即可获得全部战星,每日只可通关1次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1256,14 +1196,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D23"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="18.25" customWidth="1"/>
@@ -1275,7 +1215,7 @@
     <col min="10" max="10" width="37.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1283,13 +1223,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" s="8"/>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="1" customFormat="1">
+    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1342,10 +1282,10 @@
         <v>19</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>1</v>
       </c>
@@ -1356,19 +1296,19 @@
         <v>30</v>
       </c>
       <c r="E4">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="F4">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G4">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1377,10 +1317,10 @@
         <v>4</v>
       </c>
       <c r="L4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O4" s="7">
         <v>5000000</v>
@@ -1392,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>2</v>
       </c>
@@ -1406,19 +1346,19 @@
         <v>30</v>
       </c>
       <c r="E5">
-        <v>1800</v>
+        <v>1100</v>
       </c>
       <c r="F5">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="G5">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1427,10 +1367,10 @@
         <v>5</v>
       </c>
       <c r="L5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O5" s="7">
         <v>6000000</v>
@@ -1442,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>3</v>
       </c>
@@ -1456,19 +1396,19 @@
         <v>30</v>
       </c>
       <c r="E6">
-        <v>2100</v>
+        <v>1700</v>
       </c>
       <c r="F6">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="G6">
-        <v>35000</v>
+        <v>21000</v>
       </c>
       <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1477,10 +1417,10 @@
         <v>3</v>
       </c>
       <c r="L6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O6" s="7">
         <v>7000000</v>
@@ -1492,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B7">
         <v>4</v>
       </c>
@@ -1506,19 +1446,19 @@
         <v>30</v>
       </c>
       <c r="E7">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="F7">
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="G7">
-        <v>40000</v>
+        <v>28500</v>
       </c>
       <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1527,10 +1467,10 @@
         <v>7</v>
       </c>
       <c r="L7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O7" s="7">
         <v>8000000</v>
@@ -1542,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>5</v>
       </c>
@@ -1556,19 +1496,19 @@
         <v>30</v>
       </c>
       <c r="E8">
-        <v>2700</v>
+        <v>3800</v>
       </c>
       <c r="F8">
-        <v>1400</v>
+        <v>3600</v>
       </c>
       <c r="G8">
-        <v>45000</v>
+        <v>36000</v>
       </c>
       <c r="H8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J8">
         <v>30001</v>
@@ -1577,10 +1517,10 @@
         <v>6</v>
       </c>
       <c r="L8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O8" s="7">
         <v>9000000</v>
@@ -1592,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B9">
         <v>6</v>
       </c>
@@ -1606,19 +1546,19 @@
         <v>30</v>
       </c>
       <c r="E9">
-        <v>3000</v>
+        <v>4800</v>
       </c>
       <c r="F9">
-        <v>1500</v>
+        <v>3700</v>
       </c>
       <c r="G9">
-        <v>50000</v>
+        <v>46000</v>
       </c>
       <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1627,10 +1567,10 @@
         <v>3</v>
       </c>
       <c r="L9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="O9" s="7">
         <v>10000000</v>
@@ -1642,10 +1582,10 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B10">
         <v>7</v>
       </c>
@@ -1656,19 +1596,19 @@
         <v>30</v>
       </c>
       <c r="E10">
-        <v>3300</v>
+        <v>6000</v>
       </c>
       <c r="F10">
-        <v>1600</v>
+        <v>3800</v>
       </c>
       <c r="G10">
-        <v>55000</v>
+        <v>57000</v>
       </c>
       <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1677,10 +1617,10 @@
         <v>5</v>
       </c>
       <c r="L10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N10" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="O10" s="7">
         <v>11000000</v>
@@ -1692,10 +1632,10 @@
         <v>0</v>
       </c>
       <c r="R10">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B11">
         <v>8</v>
       </c>
@@ -1706,19 +1646,19 @@
         <v>30</v>
       </c>
       <c r="E11">
-        <v>3600</v>
+        <v>6500</v>
       </c>
       <c r="F11">
-        <v>1700</v>
+        <v>5200</v>
       </c>
       <c r="G11">
-        <v>60000</v>
+        <v>72000</v>
       </c>
       <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1727,10 +1667,10 @@
         <v>4</v>
       </c>
       <c r="L11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="O11" s="7">
         <v>12000000</v>
@@ -1742,10 +1682,10 @@
         <v>0</v>
       </c>
       <c r="R11">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B12">
         <v>9</v>
       </c>
@@ -1756,19 +1696,19 @@
         <v>30</v>
       </c>
       <c r="E12">
-        <v>3900</v>
+        <v>7000</v>
       </c>
       <c r="F12">
-        <v>1800</v>
+        <v>6800</v>
       </c>
       <c r="G12">
-        <v>65000</v>
+        <v>90000</v>
       </c>
       <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1777,10 +1717,10 @@
         <v>8</v>
       </c>
       <c r="L12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N12" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="O12" s="7">
         <v>13000000</v>
@@ -1792,10 +1732,10 @@
         <v>0</v>
       </c>
       <c r="R12">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B13">
         <v>10</v>
       </c>
@@ -1806,19 +1746,19 @@
         <v>30</v>
       </c>
       <c r="E13">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="F13">
-        <v>2000</v>
+        <v>8300</v>
       </c>
       <c r="G13">
-        <v>75000</v>
+        <v>110000</v>
       </c>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J13">
         <v>30001</v>
@@ -1827,10 +1767,10 @@
         <v>6</v>
       </c>
       <c r="L13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N13" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="O13" s="7">
         <v>14000000</v>
@@ -1842,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="R13">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B14">
         <v>11</v>
       </c>
@@ -1856,19 +1796,19 @@
         <v>30</v>
       </c>
       <c r="E14">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="F14">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G14">
-        <v>75000</v>
+        <v>130000</v>
       </c>
       <c r="H14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1877,10 +1817,10 @@
         <v>5</v>
       </c>
       <c r="L14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N14" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="O14" s="7">
         <v>15000000</v>
@@ -1892,10 +1832,10 @@
         <v>0</v>
       </c>
       <c r="R14">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B15">
         <v>12</v>
       </c>
@@ -1906,19 +1846,19 @@
         <v>30</v>
       </c>
       <c r="E15">
-        <v>5400</v>
+        <v>10500</v>
       </c>
       <c r="F15">
-        <v>2200</v>
+        <v>11000</v>
       </c>
       <c r="G15">
-        <v>90000</v>
+        <v>155000</v>
       </c>
       <c r="H15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1927,10 +1867,10 @@
         <v>3</v>
       </c>
       <c r="L15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N15" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="O15" s="7">
         <v>16000000</v>
@@ -1942,10 +1882,10 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B16">
         <v>13</v>
       </c>
@@ -1956,19 +1896,19 @@
         <v>30</v>
       </c>
       <c r="E16">
-        <v>6300</v>
+        <v>12000</v>
       </c>
       <c r="F16">
-        <v>2400</v>
+        <v>12000</v>
       </c>
       <c r="G16">
-        <v>105000</v>
+        <v>180000</v>
       </c>
       <c r="H16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1977,10 +1917,10 @@
         <v>8</v>
       </c>
       <c r="L16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N16" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="O16" s="7">
         <v>17000000</v>
@@ -1992,10 +1932,10 @@
         <v>0</v>
       </c>
       <c r="R16">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="17" spans="2:18">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B17">
         <v>14</v>
       </c>
@@ -2006,19 +1946,19 @@
         <v>30</v>
       </c>
       <c r="E17">
-        <v>7200</v>
+        <v>13500</v>
       </c>
       <c r="F17">
-        <v>2600</v>
+        <v>13000</v>
       </c>
       <c r="G17">
-        <v>120000</v>
+        <v>230000</v>
       </c>
       <c r="H17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -2027,10 +1967,10 @@
         <v>4</v>
       </c>
       <c r="L17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N17" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="O17" s="7">
         <v>18000000</v>
@@ -2042,10 +1982,10 @@
         <v>0</v>
       </c>
       <c r="R17">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="18" spans="2:18">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B18">
         <v>15</v>
       </c>
@@ -2056,19 +1996,19 @@
         <v>30</v>
       </c>
       <c r="E18">
-        <v>8100</v>
+        <v>15000</v>
       </c>
       <c r="F18">
-        <v>2800</v>
+        <v>14000</v>
       </c>
       <c r="G18">
-        <v>135000</v>
+        <v>280000</v>
       </c>
       <c r="H18" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J18">
         <v>30001</v>
@@ -2077,10 +2017,10 @@
         <v>7</v>
       </c>
       <c r="L18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N18" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="O18" s="7">
         <v>19000000</v>
@@ -2092,10 +2032,10 @@
         <v>0</v>
       </c>
       <c r="R18">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="19" spans="2:18">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B19">
         <v>16</v>
       </c>
@@ -2106,19 +2046,19 @@
         <v>30</v>
       </c>
       <c r="E19">
-        <v>9000</v>
+        <v>16500</v>
       </c>
       <c r="F19">
-        <v>3000</v>
+        <v>15500</v>
       </c>
       <c r="G19">
-        <v>150000</v>
+        <v>330000</v>
       </c>
       <c r="H19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -2127,10 +2067,10 @@
         <v>9</v>
       </c>
       <c r="L19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N19" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="O19" s="7">
         <v>20000000</v>
@@ -2142,10 +2082,10 @@
         <v>0</v>
       </c>
       <c r="R19">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="20" spans="2:18">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B20">
         <v>17</v>
       </c>
@@ -2156,19 +2096,19 @@
         <v>30</v>
       </c>
       <c r="E20">
-        <v>9900</v>
+        <v>17100</v>
       </c>
       <c r="F20">
-        <v>3200</v>
+        <v>16100</v>
       </c>
       <c r="G20">
-        <v>165000</v>
+        <v>350000</v>
       </c>
       <c r="H20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -2177,10 +2117,10 @@
         <v>7</v>
       </c>
       <c r="L20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N20" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="O20" s="7">
         <v>21000000</v>
@@ -2192,10 +2132,10 @@
         <v>0</v>
       </c>
       <c r="R20">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="21" spans="2:18">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B21">
         <v>18</v>
       </c>
@@ -2206,19 +2146,19 @@
         <v>30</v>
       </c>
       <c r="E21">
-        <v>10800</v>
+        <v>17400</v>
       </c>
       <c r="F21">
-        <v>3400</v>
+        <v>16400</v>
       </c>
       <c r="G21">
-        <v>180000</v>
+        <v>360000</v>
       </c>
       <c r="H21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2227,10 +2167,10 @@
         <v>3</v>
       </c>
       <c r="L21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N21" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="O21" s="7">
         <v>22000000</v>
@@ -2242,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="R21">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="22" spans="2:18">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B22">
         <v>19</v>
       </c>
@@ -2256,19 +2196,19 @@
         <v>30</v>
       </c>
       <c r="E22">
-        <v>11700</v>
+        <v>17700</v>
       </c>
       <c r="F22">
-        <v>3600</v>
+        <v>16700</v>
       </c>
       <c r="G22">
-        <v>195000</v>
+        <v>370000</v>
       </c>
       <c r="H22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2277,10 +2217,10 @@
         <v>6</v>
       </c>
       <c r="L22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N22" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="O22" s="7">
         <v>23000000</v>
@@ -2292,10 +2232,10 @@
         <v>0</v>
       </c>
       <c r="R22">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="23" spans="2:18">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B23">
         <v>20</v>
       </c>
@@ -2306,19 +2246,19 @@
         <v>30</v>
       </c>
       <c r="E23">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="F23">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="G23">
-        <v>225000</v>
+        <v>380000</v>
       </c>
       <c r="H23" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J23">
         <v>30001</v>
@@ -2327,10 +2267,10 @@
         <v>9</v>
       </c>
       <c r="L23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N23" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="O23" s="7">
         <v>24000000</v>
@@ -2342,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="R23">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2358,12 +2298,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -2373,12 +2313,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/config/data/无尽模式.xlsx
+++ b/config/data/无尽模式.xlsx
@@ -471,12 +471,1400 @@
         </r>
       </text>
     </comment>
+    <comment ref="S3" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>barry:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ai</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>等级：
+超低级</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">AI </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>就只有</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10%</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>的暴击率</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>适用于所有小怪</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>普通</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">AI </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>用于剧情模式</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>每</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>关
+高级</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">AI </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>用于挑战模式</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>另外</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>怪的普攻和暴击</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>都加</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>点能量
+无</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:0
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>暴击率</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">10%
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>简单：</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>暴击率</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">30%
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>血量</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>50%</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>以上</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>只释放技能</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1-</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>攻击强化
+能量每次到达</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>15</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>点</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>有</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>30%</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>几率继续积攒</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>到达</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>30</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>点释放技能</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2-</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>攻击
+血量</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>50%</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>以下</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>只释放技能</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1-</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>防御强化
+能量每次到达</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>15</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>点</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>有</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>30%</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>几率继续积攒</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>到达</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>30</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>点释放技能</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2-</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>防御
+血量在低于</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>50%</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>时</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,30%</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>几率召唤战舰（无能量限制</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>战舰攻击</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>次
+无论是否召唤出战舰</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">每场战斗都只判定一次
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>秒内掉血超</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">30% </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>释放技能</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1-</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>回血（无能量限制
+难：</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>暴击率</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">50%
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>血量</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>50%</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>以上</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>只释放技能</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1-</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>攻击强化
+能量每次到达</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>15</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>点</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>有</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>60%</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>几率继续积攒</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>到达</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>30</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>点释放技能</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2-</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>攻击
+血量</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>50%</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>以下</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>只释放技能</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1-</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>防御强化
+能量每次到达</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>15</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>点</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>有</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>60%</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>几率继续积攒</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>到达</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>30</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>点释放技能</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2-</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>防御
+血量在低于</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>50%</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>时</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,60%</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>几率召唤战舰（无能量限制</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>战舰攻击</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>次
+无论是否召唤出战舰</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">每场战斗都只判定一次
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>秒内掉血超</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">30% </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>释放技能</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1-</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>回血（无能量限制</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="46">
   <si>
     <t>comment</t>
   </si>
@@ -704,6 +2092,10 @@
   </si>
   <si>
     <t>胜利即可获得全部战星,每日只可通关1次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1197,10 +2589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1215,7 +2607,7 @@
     <col min="10" max="10" width="37.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1223,13 +2615,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="8"/>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1284,8 +2676,11 @@
       <c r="R3" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="S3" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>1</v>
       </c>
@@ -1334,8 +2729,11 @@
       <c r="R4">
         <v>30</v>
       </c>
+      <c r="S4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>2</v>
       </c>
@@ -1384,8 +2782,11 @@
       <c r="R5">
         <v>30</v>
       </c>
+      <c r="S5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>3</v>
       </c>
@@ -1396,10 +2797,10 @@
         <v>30</v>
       </c>
       <c r="E6">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="F6">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="G6">
         <v>21000</v>
@@ -1434,8 +2835,11 @@
       <c r="R6">
         <v>30</v>
       </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B7">
         <v>4</v>
       </c>
@@ -1446,13 +2850,13 @@
         <v>30</v>
       </c>
       <c r="E7">
-        <v>2700</v>
+        <v>3200</v>
       </c>
       <c r="F7">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="G7">
-        <v>28500</v>
+        <v>31000</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
@@ -1484,8 +2888,11 @@
       <c r="R7">
         <v>30</v>
       </c>
+      <c r="S7">
+        <v>2</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>5</v>
       </c>
@@ -1496,13 +2903,13 @@
         <v>30</v>
       </c>
       <c r="E8">
-        <v>3800</v>
+        <v>4900</v>
       </c>
       <c r="F8">
-        <v>3600</v>
+        <v>4400</v>
       </c>
       <c r="G8">
-        <v>36000</v>
+        <v>42000</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
@@ -1534,8 +2941,11 @@
       <c r="R8">
         <v>30</v>
       </c>
+      <c r="S8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B9">
         <v>6</v>
       </c>
@@ -1546,13 +2956,13 @@
         <v>30</v>
       </c>
       <c r="E9">
-        <v>4800</v>
+        <v>7000</v>
       </c>
       <c r="F9">
-        <v>3700</v>
+        <v>6500</v>
       </c>
       <c r="G9">
-        <v>46000</v>
+        <v>57000</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -1584,8 +2994,11 @@
       <c r="R9">
         <v>45</v>
       </c>
+      <c r="S9">
+        <v>2</v>
+      </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B10">
         <v>7</v>
       </c>
@@ -1596,13 +3009,13 @@
         <v>30</v>
       </c>
       <c r="E10">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="F10">
-        <v>3800</v>
+        <v>9000</v>
       </c>
       <c r="G10">
-        <v>57000</v>
+        <v>75000</v>
       </c>
       <c r="H10" t="s">
         <v>25</v>
@@ -1634,8 +3047,11 @@
       <c r="R10">
         <v>45</v>
       </c>
+      <c r="S10">
+        <v>2</v>
+      </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B11">
         <v>8</v>
       </c>
@@ -1646,13 +3062,13 @@
         <v>30</v>
       </c>
       <c r="E11">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="F11">
-        <v>5200</v>
+        <v>14000</v>
       </c>
       <c r="G11">
-        <v>72000</v>
+        <v>100000</v>
       </c>
       <c r="H11" t="s">
         <v>25</v>
@@ -1684,8 +3100,11 @@
       <c r="R11">
         <v>45</v>
       </c>
+      <c r="S11">
+        <v>2</v>
+      </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B12">
         <v>9</v>
       </c>
@@ -1696,13 +3115,13 @@
         <v>30</v>
       </c>
       <c r="E12">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="F12">
-        <v>6800</v>
+        <v>19000</v>
       </c>
       <c r="G12">
-        <v>90000</v>
+        <v>130000</v>
       </c>
       <c r="H12" t="s">
         <v>25</v>
@@ -1734,8 +3153,11 @@
       <c r="R12">
         <v>45</v>
       </c>
+      <c r="S12">
+        <v>2</v>
+      </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B13">
         <v>10</v>
       </c>
@@ -1746,13 +3168,13 @@
         <v>30</v>
       </c>
       <c r="E13">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="F13">
-        <v>8300</v>
+        <v>24000</v>
       </c>
       <c r="G13">
-        <v>110000</v>
+        <v>180000</v>
       </c>
       <c r="H13" t="s">
         <v>25</v>
@@ -1784,8 +3206,11 @@
       <c r="R13">
         <v>45</v>
       </c>
+      <c r="S13">
+        <v>2</v>
+      </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B14">
         <v>11</v>
       </c>
@@ -1796,13 +3221,13 @@
         <v>30</v>
       </c>
       <c r="E14">
-        <v>9000</v>
+        <v>30000</v>
       </c>
       <c r="F14">
-        <v>10000</v>
+        <v>29000</v>
       </c>
       <c r="G14">
-        <v>130000</v>
+        <v>230000</v>
       </c>
       <c r="H14" t="s">
         <v>25</v>
@@ -1834,8 +3259,11 @@
       <c r="R14">
         <v>60</v>
       </c>
+      <c r="S14">
+        <v>2</v>
+      </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B15">
         <v>12</v>
       </c>
@@ -1846,13 +3274,13 @@
         <v>30</v>
       </c>
       <c r="E15">
-        <v>10500</v>
+        <v>35000</v>
       </c>
       <c r="F15">
-        <v>11000</v>
+        <v>34000</v>
       </c>
       <c r="G15">
-        <v>155000</v>
+        <v>280000</v>
       </c>
       <c r="H15" t="s">
         <v>25</v>
@@ -1884,8 +3312,11 @@
       <c r="R15">
         <v>60</v>
       </c>
+      <c r="S15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B16">
         <v>13</v>
       </c>
@@ -1896,13 +3327,13 @@
         <v>30</v>
       </c>
       <c r="E16">
-        <v>12000</v>
+        <v>40000</v>
       </c>
       <c r="F16">
-        <v>12000</v>
+        <v>39000</v>
       </c>
       <c r="G16">
-        <v>180000</v>
+        <v>330000</v>
       </c>
       <c r="H16" t="s">
         <v>25</v>
@@ -1934,8 +3365,11 @@
       <c r="R16">
         <v>60</v>
       </c>
+      <c r="S16">
+        <v>2</v>
+      </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B17">
         <v>14</v>
       </c>
@@ -1946,13 +3380,13 @@
         <v>30</v>
       </c>
       <c r="E17">
-        <v>13500</v>
+        <v>47500</v>
       </c>
       <c r="F17">
-        <v>13000</v>
+        <v>47000</v>
       </c>
       <c r="G17">
-        <v>230000</v>
+        <v>405000</v>
       </c>
       <c r="H17" t="s">
         <v>25</v>
@@ -1984,8 +3418,11 @@
       <c r="R17">
         <v>60</v>
       </c>
+      <c r="S17">
+        <v>2</v>
+      </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B18">
         <v>15</v>
       </c>
@@ -1996,13 +3433,13 @@
         <v>30</v>
       </c>
       <c r="E18">
-        <v>15000</v>
+        <v>55000</v>
       </c>
       <c r="F18">
-        <v>14000</v>
+        <v>54500</v>
       </c>
       <c r="G18">
-        <v>280000</v>
+        <v>480000</v>
       </c>
       <c r="H18" t="s">
         <v>25</v>
@@ -2034,8 +3471,11 @@
       <c r="R18">
         <v>60</v>
       </c>
+      <c r="S18">
+        <v>2</v>
+      </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B19">
         <v>16</v>
       </c>
@@ -2046,13 +3486,13 @@
         <v>30</v>
       </c>
       <c r="E19">
-        <v>16500</v>
+        <v>62500</v>
       </c>
       <c r="F19">
-        <v>15500</v>
+        <v>62000</v>
       </c>
       <c r="G19">
-        <v>330000</v>
+        <v>555000</v>
       </c>
       <c r="H19" t="s">
         <v>25</v>
@@ -2084,8 +3524,11 @@
       <c r="R19">
         <v>75</v>
       </c>
+      <c r="S19">
+        <v>2</v>
+      </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B20">
         <v>17</v>
       </c>
@@ -2096,13 +3539,13 @@
         <v>30</v>
       </c>
       <c r="E20">
-        <v>17100</v>
+        <v>70000</v>
       </c>
       <c r="F20">
-        <v>16100</v>
+        <v>69500</v>
       </c>
       <c r="G20">
-        <v>350000</v>
+        <v>630000</v>
       </c>
       <c r="H20" t="s">
         <v>25</v>
@@ -2134,8 +3577,11 @@
       <c r="R20">
         <v>75</v>
       </c>
+      <c r="S20">
+        <v>2</v>
+      </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B21">
         <v>18</v>
       </c>
@@ -2146,13 +3592,13 @@
         <v>30</v>
       </c>
       <c r="E21">
-        <v>17400</v>
+        <v>80000</v>
       </c>
       <c r="F21">
-        <v>16400</v>
+        <v>79000</v>
       </c>
       <c r="G21">
-        <v>360000</v>
+        <v>580000</v>
       </c>
       <c r="H21" t="s">
         <v>25</v>
@@ -2184,8 +3630,11 @@
       <c r="R21">
         <v>75</v>
       </c>
+      <c r="S21">
+        <v>2</v>
+      </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B22">
         <v>19</v>
       </c>
@@ -2196,13 +3645,13 @@
         <v>30</v>
       </c>
       <c r="E22">
-        <v>17700</v>
+        <v>90000</v>
       </c>
       <c r="F22">
-        <v>16700</v>
+        <v>89000</v>
       </c>
       <c r="G22">
-        <v>370000</v>
+        <v>630000</v>
       </c>
       <c r="H22" t="s">
         <v>25</v>
@@ -2234,8 +3683,11 @@
       <c r="R22">
         <v>75</v>
       </c>
+      <c r="S22">
+        <v>2</v>
+      </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B23">
         <v>20</v>
       </c>
@@ -2246,13 +3698,13 @@
         <v>30</v>
       </c>
       <c r="E23">
-        <v>18000</v>
+        <v>100000</v>
       </c>
       <c r="F23">
-        <v>17000</v>
+        <v>98000</v>
       </c>
       <c r="G23">
-        <v>380000</v>
+        <v>710000</v>
       </c>
       <c r="H23" t="s">
         <v>25</v>
@@ -2283,6 +3735,9 @@
       </c>
       <c r="R23">
         <v>75</v>
+      </c>
+      <c r="S23">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/config/data/无尽模式.xlsx
+++ b/config/data/无尽模式.xlsx
@@ -2592,7 +2592,7 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2962,7 +2962,7 @@
         <v>6500</v>
       </c>
       <c r="G9">
-        <v>57000</v>
+        <v>65000</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -3015,7 +3015,7 @@
         <v>9000</v>
       </c>
       <c r="G10">
-        <v>75000</v>
+        <v>90000</v>
       </c>
       <c r="H10" t="s">
         <v>25</v>
@@ -3068,7 +3068,7 @@
         <v>14000</v>
       </c>
       <c r="G11">
-        <v>100000</v>
+        <v>140000</v>
       </c>
       <c r="H11" t="s">
         <v>25</v>
@@ -3115,13 +3115,13 @@
         <v>30</v>
       </c>
       <c r="E12">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="F12">
         <v>19000</v>
       </c>
       <c r="G12">
-        <v>130000</v>
+        <v>190000</v>
       </c>
       <c r="H12" t="s">
         <v>25</v>
@@ -3168,13 +3168,13 @@
         <v>30</v>
       </c>
       <c r="E13">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="F13">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="G13">
-        <v>180000</v>
+        <v>240000</v>
       </c>
       <c r="H13" t="s">
         <v>25</v>
@@ -3221,13 +3221,13 @@
         <v>30</v>
       </c>
       <c r="E14">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="F14">
-        <v>29000</v>
+        <v>38000</v>
       </c>
       <c r="G14">
-        <v>230000</v>
+        <v>300000</v>
       </c>
       <c r="H14" t="s">
         <v>25</v>
@@ -3274,13 +3274,13 @@
         <v>30</v>
       </c>
       <c r="E15">
-        <v>35000</v>
+        <v>50000</v>
       </c>
       <c r="F15">
-        <v>34000</v>
+        <v>48000</v>
       </c>
       <c r="G15">
-        <v>280000</v>
+        <v>400000</v>
       </c>
       <c r="H15" t="s">
         <v>25</v>
@@ -3327,13 +3327,13 @@
         <v>30</v>
       </c>
       <c r="E16">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="F16">
-        <v>39000</v>
+        <v>58000</v>
       </c>
       <c r="G16">
-        <v>330000</v>
+        <v>500000</v>
       </c>
       <c r="H16" t="s">
         <v>25</v>
@@ -3380,13 +3380,13 @@
         <v>30</v>
       </c>
       <c r="E17">
-        <v>47500</v>
+        <v>80000</v>
       </c>
       <c r="F17">
-        <v>47000</v>
+        <v>76000</v>
       </c>
       <c r="G17">
-        <v>405000</v>
+        <v>600000</v>
       </c>
       <c r="H17" t="s">
         <v>25</v>
@@ -3433,13 +3433,13 @@
         <v>30</v>
       </c>
       <c r="E18">
-        <v>55000</v>
+        <v>100000</v>
       </c>
       <c r="F18">
-        <v>54500</v>
+        <v>96000</v>
       </c>
       <c r="G18">
-        <v>480000</v>
+        <v>700000</v>
       </c>
       <c r="H18" t="s">
         <v>25</v>
@@ -3486,13 +3486,13 @@
         <v>30</v>
       </c>
       <c r="E19">
-        <v>62500</v>
+        <v>150000</v>
       </c>
       <c r="F19">
-        <v>62000</v>
+        <v>140000</v>
       </c>
       <c r="G19">
-        <v>555000</v>
+        <v>950000</v>
       </c>
       <c r="H19" t="s">
         <v>25</v>
@@ -3539,13 +3539,13 @@
         <v>30</v>
       </c>
       <c r="E20">
-        <v>70000</v>
+        <v>200000</v>
       </c>
       <c r="F20">
-        <v>69500</v>
+        <v>190000</v>
       </c>
       <c r="G20">
-        <v>630000</v>
+        <v>1400000</v>
       </c>
       <c r="H20" t="s">
         <v>25</v>
@@ -3592,13 +3592,13 @@
         <v>30</v>
       </c>
       <c r="E21">
-        <v>80000</v>
+        <v>300000</v>
       </c>
       <c r="F21">
-        <v>79000</v>
+        <v>280000</v>
       </c>
       <c r="G21">
-        <v>580000</v>
+        <v>2500000</v>
       </c>
       <c r="H21" t="s">
         <v>25</v>
@@ -3645,13 +3645,13 @@
         <v>30</v>
       </c>
       <c r="E22">
-        <v>90000</v>
+        <v>400000</v>
       </c>
       <c r="F22">
-        <v>89000</v>
+        <v>380000</v>
       </c>
       <c r="G22">
-        <v>630000</v>
+        <v>3400000</v>
       </c>
       <c r="H22" t="s">
         <v>25</v>
@@ -3698,13 +3698,13 @@
         <v>30</v>
       </c>
       <c r="E23">
-        <v>100000</v>
+        <v>500000</v>
       </c>
       <c r="F23">
-        <v>98000</v>
+        <v>490000</v>
       </c>
       <c r="G23">
-        <v>710000</v>
+        <v>5000000</v>
       </c>
       <c r="H23" t="s">
         <v>25</v>

--- a/config/data/无尽模式.xlsx
+++ b/config/data/无尽模式.xlsx
@@ -2591,8 +2591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2605,6 +2605,7 @@
     <col min="8" max="8" width="19" customWidth="1"/>
     <col min="9" max="9" width="16.875" customWidth="1"/>
     <col min="10" max="10" width="37.375" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.15">
@@ -2718,7 +2719,7 @@
         <v>44</v>
       </c>
       <c r="O4" s="7">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -2744,10 +2745,10 @@
         <v>30</v>
       </c>
       <c r="E5">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="F5">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G5">
         <v>15000</v>
@@ -2771,7 +2772,7 @@
         <v>44</v>
       </c>
       <c r="O5" s="7">
-        <v>6000000</v>
+        <v>4000000</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -2797,13 +2798,13 @@
         <v>30</v>
       </c>
       <c r="E6">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="F6">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="G6">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
@@ -2824,7 +2825,7 @@
         <v>44</v>
       </c>
       <c r="O6" s="7">
-        <v>7000000</v>
+        <v>5000000</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -2850,13 +2851,13 @@
         <v>30</v>
       </c>
       <c r="E7">
-        <v>3200</v>
+        <v>5000</v>
       </c>
       <c r="F7">
-        <v>2900</v>
+        <v>4500</v>
       </c>
       <c r="G7">
-        <v>31000</v>
+        <v>40000</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
@@ -2877,7 +2878,7 @@
         <v>44</v>
       </c>
       <c r="O7" s="7">
-        <v>8000000</v>
+        <v>6000000</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -2903,13 +2904,13 @@
         <v>30</v>
       </c>
       <c r="E8">
-        <v>4900</v>
+        <v>8000</v>
       </c>
       <c r="F8">
-        <v>4400</v>
+        <v>7000</v>
       </c>
       <c r="G8">
-        <v>42000</v>
+        <v>70000</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
@@ -2930,7 +2931,7 @@
         <v>44</v>
       </c>
       <c r="O8" s="7">
-        <v>9000000</v>
+        <v>7000000</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -2956,13 +2957,13 @@
         <v>30</v>
       </c>
       <c r="E9">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="F9">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="G9">
-        <v>65000</v>
+        <v>120000</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -2983,7 +2984,7 @@
         <v>44</v>
       </c>
       <c r="O9" s="7">
-        <v>10000000</v>
+        <v>8000000</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -3009,13 +3010,13 @@
         <v>30</v>
       </c>
       <c r="E10">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="F10">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="G10">
-        <v>90000</v>
+        <v>180000</v>
       </c>
       <c r="H10" t="s">
         <v>25</v>
@@ -3036,7 +3037,7 @@
         <v>44</v>
       </c>
       <c r="O10" s="7">
-        <v>11000000</v>
+        <v>9000000</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -3062,13 +3063,13 @@
         <v>30</v>
       </c>
       <c r="E11">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="F11">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="G11">
-        <v>140000</v>
+        <v>280000</v>
       </c>
       <c r="H11" t="s">
         <v>25</v>
@@ -3089,7 +3090,7 @@
         <v>44</v>
       </c>
       <c r="O11" s="7">
-        <v>12000000</v>
+        <v>10000000</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -3115,13 +3116,13 @@
         <v>30</v>
       </c>
       <c r="E12">
-        <v>21000</v>
+        <v>39000</v>
       </c>
       <c r="F12">
-        <v>19000</v>
+        <v>36000</v>
       </c>
       <c r="G12">
-        <v>190000</v>
+        <v>380000</v>
       </c>
       <c r="H12" t="s">
         <v>25</v>
@@ -3142,7 +3143,7 @@
         <v>44</v>
       </c>
       <c r="O12" s="7">
-        <v>13000000</v>
+        <v>11000000</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -3168,13 +3169,13 @@
         <v>30</v>
       </c>
       <c r="E13">
-        <v>30000</v>
+        <v>54000</v>
       </c>
       <c r="F13">
-        <v>28000</v>
+        <v>51000</v>
       </c>
       <c r="G13">
-        <v>240000</v>
+        <v>480000</v>
       </c>
       <c r="H13" t="s">
         <v>25</v>
@@ -3195,7 +3196,7 @@
         <v>44</v>
       </c>
       <c r="O13" s="7">
-        <v>14000000</v>
+        <v>12000000</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -3221,13 +3222,13 @@
         <v>30</v>
       </c>
       <c r="E14">
-        <v>40000</v>
+        <v>70000</v>
       </c>
       <c r="F14">
-        <v>38000</v>
+        <v>66000</v>
       </c>
       <c r="G14">
-        <v>300000</v>
+        <v>590000</v>
       </c>
       <c r="H14" t="s">
         <v>25</v>
@@ -3248,7 +3249,7 @@
         <v>44</v>
       </c>
       <c r="O14" s="7">
-        <v>15000000</v>
+        <v>13000000</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -3274,13 +3275,13 @@
         <v>30</v>
       </c>
       <c r="E15">
-        <v>50000</v>
+        <v>95000</v>
       </c>
       <c r="F15">
-        <v>48000</v>
+        <v>90000</v>
       </c>
       <c r="G15">
-        <v>400000</v>
+        <v>740000</v>
       </c>
       <c r="H15" t="s">
         <v>25</v>
@@ -3301,7 +3302,7 @@
         <v>44</v>
       </c>
       <c r="O15" s="7">
-        <v>16000000</v>
+        <v>14000000</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -3327,13 +3328,13 @@
         <v>30</v>
       </c>
       <c r="E16">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="F16">
-        <v>58000</v>
+        <v>115000</v>
       </c>
       <c r="G16">
-        <v>500000</v>
+        <v>900000</v>
       </c>
       <c r="H16" t="s">
         <v>25</v>
@@ -3354,7 +3355,7 @@
         <v>44</v>
       </c>
       <c r="O16" s="7">
-        <v>17000000</v>
+        <v>15000000</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -3380,13 +3381,13 @@
         <v>30</v>
       </c>
       <c r="E17">
-        <v>80000</v>
+        <v>170000</v>
       </c>
       <c r="F17">
-        <v>76000</v>
+        <v>160000</v>
       </c>
       <c r="G17">
-        <v>600000</v>
+        <v>1150000</v>
       </c>
       <c r="H17" t="s">
         <v>25</v>
@@ -3407,7 +3408,7 @@
         <v>44</v>
       </c>
       <c r="O17" s="7">
-        <v>18000000</v>
+        <v>16000000</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -3433,13 +3434,13 @@
         <v>30</v>
       </c>
       <c r="E18">
-        <v>100000</v>
+        <v>220000</v>
       </c>
       <c r="F18">
-        <v>96000</v>
+        <v>210000</v>
       </c>
       <c r="G18">
-        <v>700000</v>
+        <v>1400000</v>
       </c>
       <c r="H18" t="s">
         <v>25</v>
@@ -3460,7 +3461,7 @@
         <v>44</v>
       </c>
       <c r="O18" s="7">
-        <v>19000000</v>
+        <v>17000000</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -3486,13 +3487,13 @@
         <v>30</v>
       </c>
       <c r="E19">
-        <v>150000</v>
+        <v>320000</v>
       </c>
       <c r="F19">
-        <v>140000</v>
+        <v>300000</v>
       </c>
       <c r="G19">
-        <v>950000</v>
+        <v>1900000</v>
       </c>
       <c r="H19" t="s">
         <v>25</v>
@@ -3513,7 +3514,7 @@
         <v>44</v>
       </c>
       <c r="O19" s="7">
-        <v>20000000</v>
+        <v>18000000</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -3539,13 +3540,13 @@
         <v>30</v>
       </c>
       <c r="E20">
-        <v>200000</v>
+        <v>420000</v>
       </c>
       <c r="F20">
-        <v>190000</v>
+        <v>400000</v>
       </c>
       <c r="G20">
-        <v>1400000</v>
+        <v>2400000</v>
       </c>
       <c r="H20" t="s">
         <v>25</v>
@@ -3566,7 +3567,7 @@
         <v>44</v>
       </c>
       <c r="O20" s="7">
-        <v>21000000</v>
+        <v>19000000</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -3592,13 +3593,13 @@
         <v>30</v>
       </c>
       <c r="E21">
-        <v>300000</v>
+        <v>530000</v>
       </c>
       <c r="F21">
-        <v>280000</v>
+        <v>500000</v>
       </c>
       <c r="G21">
-        <v>2500000</v>
+        <v>3400000</v>
       </c>
       <c r="H21" t="s">
         <v>25</v>
@@ -3619,7 +3620,7 @@
         <v>44</v>
       </c>
       <c r="O21" s="7">
-        <v>22000000</v>
+        <v>20000000</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -3645,13 +3646,13 @@
         <v>30</v>
       </c>
       <c r="E22">
-        <v>400000</v>
+        <v>640000</v>
       </c>
       <c r="F22">
-        <v>380000</v>
+        <v>600000</v>
       </c>
       <c r="G22">
-        <v>3400000</v>
+        <v>4500000</v>
       </c>
       <c r="H22" t="s">
         <v>25</v>
@@ -3672,7 +3673,7 @@
         <v>44</v>
       </c>
       <c r="O22" s="7">
-        <v>23000000</v>
+        <v>21000000</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -3698,13 +3699,13 @@
         <v>30</v>
       </c>
       <c r="E23">
-        <v>500000</v>
+        <v>750000</v>
       </c>
       <c r="F23">
-        <v>490000</v>
+        <v>700000</v>
       </c>
       <c r="G23">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="H23" t="s">
         <v>25</v>
@@ -3725,7 +3726,7 @@
         <v>44</v>
       </c>
       <c r="O23" s="7">
-        <v>24000000</v>
+        <v>22000000</v>
       </c>
       <c r="P23">
         <v>0</v>

--- a/config/data/无尽模式.xlsx
+++ b/config/data/无尽模式.xlsx
@@ -2591,8 +2591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2745,13 +2745,13 @@
         <v>30</v>
       </c>
       <c r="E5">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="F5">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G5">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="H5" t="s">
         <v>25</v>
@@ -2798,13 +2798,13 @@
         <v>30</v>
       </c>
       <c r="E6">
-        <v>2500</v>
+        <v>3750</v>
       </c>
       <c r="F6">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G6">
-        <v>22000</v>
+        <v>33000</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
@@ -2851,13 +2851,13 @@
         <v>30</v>
       </c>
       <c r="E7">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="F7">
-        <v>4500</v>
+        <v>6750</v>
       </c>
       <c r="G7">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
@@ -2904,13 +2904,13 @@
         <v>30</v>
       </c>
       <c r="E8">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="F8">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="G8">
-        <v>70000</v>
+        <v>105000</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
@@ -2957,13 +2957,13 @@
         <v>30</v>
       </c>
       <c r="E9">
-        <v>13000</v>
+        <v>19500</v>
       </c>
       <c r="F9">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="G9">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -3010,13 +3010,13 @@
         <v>30</v>
       </c>
       <c r="E10">
-        <v>18000</v>
+        <v>27000</v>
       </c>
       <c r="F10">
-        <v>17000</v>
+        <v>25500</v>
       </c>
       <c r="G10">
-        <v>180000</v>
+        <v>270000</v>
       </c>
       <c r="H10" t="s">
         <v>25</v>
@@ -3063,13 +3063,13 @@
         <v>30</v>
       </c>
       <c r="E11">
-        <v>28000</v>
+        <v>42000</v>
       </c>
       <c r="F11">
-        <v>26000</v>
+        <v>39000</v>
       </c>
       <c r="G11">
-        <v>280000</v>
+        <v>420000</v>
       </c>
       <c r="H11" t="s">
         <v>25</v>
@@ -3116,13 +3116,13 @@
         <v>30</v>
       </c>
       <c r="E12">
-        <v>39000</v>
+        <v>58500</v>
       </c>
       <c r="F12">
-        <v>36000</v>
+        <v>54000</v>
       </c>
       <c r="G12">
-        <v>380000</v>
+        <v>570000</v>
       </c>
       <c r="H12" t="s">
         <v>25</v>
@@ -3169,13 +3169,13 @@
         <v>30</v>
       </c>
       <c r="E13">
-        <v>54000</v>
+        <v>81000</v>
       </c>
       <c r="F13">
-        <v>51000</v>
+        <v>76500</v>
       </c>
       <c r="G13">
-        <v>480000</v>
+        <v>720000</v>
       </c>
       <c r="H13" t="s">
         <v>25</v>
@@ -3222,13 +3222,13 @@
         <v>30</v>
       </c>
       <c r="E14">
-        <v>70000</v>
+        <v>105000</v>
       </c>
       <c r="F14">
-        <v>66000</v>
+        <v>99000</v>
       </c>
       <c r="G14">
-        <v>590000</v>
+        <v>885000</v>
       </c>
       <c r="H14" t="s">
         <v>25</v>
@@ -3275,13 +3275,13 @@
         <v>30</v>
       </c>
       <c r="E15">
-        <v>95000</v>
+        <v>142500</v>
       </c>
       <c r="F15">
-        <v>90000</v>
+        <v>135000</v>
       </c>
       <c r="G15">
-        <v>740000</v>
+        <v>1110000</v>
       </c>
       <c r="H15" t="s">
         <v>25</v>
@@ -3328,13 +3328,13 @@
         <v>30</v>
       </c>
       <c r="E16">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="F16">
-        <v>115000</v>
+        <v>172500</v>
       </c>
       <c r="G16">
-        <v>900000</v>
+        <v>1350000</v>
       </c>
       <c r="H16" t="s">
         <v>25</v>
@@ -3381,13 +3381,13 @@
         <v>30</v>
       </c>
       <c r="E17">
-        <v>170000</v>
+        <v>255000</v>
       </c>
       <c r="F17">
-        <v>160000</v>
+        <v>240000</v>
       </c>
       <c r="G17">
-        <v>1150000</v>
+        <v>1725000</v>
       </c>
       <c r="H17" t="s">
         <v>25</v>
@@ -3434,13 +3434,13 @@
         <v>30</v>
       </c>
       <c r="E18">
-        <v>220000</v>
+        <v>330000</v>
       </c>
       <c r="F18">
-        <v>210000</v>
+        <v>315000</v>
       </c>
       <c r="G18">
-        <v>1400000</v>
+        <v>2100000</v>
       </c>
       <c r="H18" t="s">
         <v>25</v>
@@ -3487,13 +3487,13 @@
         <v>30</v>
       </c>
       <c r="E19">
-        <v>320000</v>
+        <v>480000</v>
       </c>
       <c r="F19">
-        <v>300000</v>
+        <v>450000</v>
       </c>
       <c r="G19">
-        <v>1900000</v>
+        <v>2850000</v>
       </c>
       <c r="H19" t="s">
         <v>25</v>
@@ -3540,13 +3540,13 @@
         <v>30</v>
       </c>
       <c r="E20">
-        <v>420000</v>
+        <v>630000</v>
       </c>
       <c r="F20">
-        <v>400000</v>
+        <v>600000</v>
       </c>
       <c r="G20">
-        <v>2400000</v>
+        <v>3600000</v>
       </c>
       <c r="H20" t="s">
         <v>25</v>
@@ -3593,13 +3593,13 @@
         <v>30</v>
       </c>
       <c r="E21">
-        <v>530000</v>
+        <v>730000</v>
       </c>
       <c r="F21">
-        <v>500000</v>
+        <v>700000</v>
       </c>
       <c r="G21">
-        <v>3400000</v>
+        <v>4400000</v>
       </c>
       <c r="H21" t="s">
         <v>25</v>
@@ -3646,13 +3646,13 @@
         <v>30</v>
       </c>
       <c r="E22">
-        <v>640000</v>
+        <v>840000</v>
       </c>
       <c r="F22">
-        <v>600000</v>
+        <v>800000</v>
       </c>
       <c r="G22">
-        <v>4500000</v>
+        <v>5600000</v>
       </c>
       <c r="H22" t="s">
         <v>25</v>
@@ -3699,13 +3699,13 @@
         <v>30</v>
       </c>
       <c r="E23">
-        <v>750000</v>
+        <v>900000</v>
       </c>
       <c r="F23">
-        <v>700000</v>
+        <v>880000</v>
       </c>
       <c r="G23">
-        <v>6000000</v>
+        <v>7000000</v>
       </c>
       <c r="H23" t="s">
         <v>25</v>
